--- a/data/trans_orig/dukeAFECT-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,07</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,63</t>
+          <t>18,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,54</t>
+          <t>17,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,21</t>
+          <t>17,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,84</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,26</t>
+          <t>17,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>16,81</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17,45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17,19</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17,96</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>16,96</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>17,65</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>17,46</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>17,45</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>17,25</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,46</t>
+          <t>17,5</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,64; 18,49</t>
+          <t>17,29; 17,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,12; 18,04</t>
+          <t>17,95; 18,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,96; 18,0</t>
+          <t>16,88; 17,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,41; 17,81</t>
+          <t>17,28; 17,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,2; 17,38</t>
+          <t>16,61; 17,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,58; 17,75</t>
+          <t>17,57; 17,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,39; 17,49</t>
+          <t>16,57; 17,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,99</t>
+          <t>17,26; 17,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,04; 17,78</t>
+          <t>17,03; 17,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,04; 17,85</t>
+          <t>17,83; 18,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 17,6</t>
+          <t>16,8; 17,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,81</t>
+          <t>17,35; 17,67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,41</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,24</t>
+          <t>17,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,02</t>
+          <t>17,36</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,48</t>
+          <t>18,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,87</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,89</t>
+          <t>17,62</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,78</t>
+          <t>17,24</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,35</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>17,4</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,07</t>
+          <t>17,69</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,9</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,41</t>
+          <t>17,73</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 17,61</t>
+          <t>17,36; 17,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,02; 18,42</t>
+          <t>17,6; 17,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,78; 17,24</t>
+          <t>17,19; 17,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 17,75</t>
+          <t>17,52; 18,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,55; 17,11</t>
+          <t>17,04; 17,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 18,07</t>
+          <t>17,44; 17,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,53; 17,01</t>
+          <t>17,09; 17,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,11; 17,56</t>
+          <t>17,13; 17,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,94; 17,3</t>
+          <t>17,27; 17,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,92; 18,21</t>
+          <t>17,57; 17,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,08</t>
+          <t>17,18; 17,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,23; 17,58</t>
+          <t>17,39; 18,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>17,77</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17,78</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16,79</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17,75</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17,47</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>17,56</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>17,77</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>17,36</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>17,64</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>17,25</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16,59</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17,11</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>17,62</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>17,24</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>17,24</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>17,4</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,69</t>
+          <t>17,67</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>16,69</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,44</t>
+          <t>17,39</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,36; 17,75</t>
+          <t>17,53; 18,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,6; 17,92</t>
+          <t>17,55; 17,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,5</t>
+          <t>16,63; 17,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,42; 18,03</t>
+          <t>17,54; 17,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,04; 17,45</t>
+          <t>17,23; 17,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 17,76</t>
+          <t>17,35; 17,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 17,39</t>
+          <t>16,39; 16,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,41</t>
+          <t>16,06; 17,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,27; 17,55</t>
+          <t>17,45; 17,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,57; 17,8</t>
+          <t>17,53; 17,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,18; 17,41</t>
+          <t>16,55; 16,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,29; 17,67</t>
+          <t>16,53; 17,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,77</t>
+          <t>17,39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,78</t>
+          <t>17,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,79</t>
+          <t>17,42</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,69</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>17,14</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>17,32</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,59</t>
+          <t>17,26</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,28</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,62</t>
+          <t>17,26</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,67</t>
+          <t>17,46</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16,69</t>
+          <t>17,34</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>17,61</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,53; 18,0</t>
+          <t>17,18; 17,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,55; 17,97</t>
+          <t>17,43; 17,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 17,0</t>
+          <t>17,22; 17,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,48; 17,9</t>
+          <t>17,34; 17,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,23; 17,69</t>
+          <t>16,94; 17,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,35; 17,75</t>
+          <t>17,13; 17,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,39; 16,75</t>
+          <t>17,05; 17,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,44; 17,68</t>
+          <t>17,41; 18,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,77</t>
+          <t>17,1; 17,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,53; 17,81</t>
+          <t>17,33; 17,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 16,82</t>
+          <t>17,2; 17,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,69</t>
+          <t>17,47; 17,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,39</t>
+          <t>17,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,61</t>
+          <t>17,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,42</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,45</t>
+          <t>17,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,32</t>
+          <t>17,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,26</t>
+          <t>17,02</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,45</t>
+          <t>17,38</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,26</t>
+          <t>17,36</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17,46</t>
+          <t>17,68</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>17,34</t>
+          <t>17,11</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>17,45</t>
+          <t>17,58</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,18; 17,57</t>
+          <t>17,45; 17,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,43; 17,76</t>
+          <t>17,72; 17,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,58</t>
+          <t>17,11; 17,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,64</t>
+          <t>17,58; 18,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 17,34</t>
+          <t>17,06; 17,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,13; 17,49</t>
+          <t>17,46; 17,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,05; 17,43</t>
+          <t>16,93; 17,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,26; 17,64</t>
+          <t>16,89; 17,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,1; 17,4</t>
+          <t>17,28; 17,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,33; 17,59</t>
+          <t>17,61; 17,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,46</t>
+          <t>17,04; 17,17</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,31; 17,59</t>
+          <t>17,37; 17,82</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>17,55</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>17,8</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,2</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>17,56</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>17,18</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>17,55</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>17,02</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>17,34</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>17,36</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>17,68</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>17,11</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>17,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>17,45; 17,65</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>17,72; 17,89</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,11; 17,29</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>17,45; 17,72</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>17,06; 17,29</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>17,46; 17,64</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>16,93; 17,12</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>17,06; 17,45</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>17,28; 17,44</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>17,61; 17,74</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>17,04; 17,17</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>17,32; 17,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/dukeAFECT-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,29; 17,7</t>
+          <t>17,31; 17,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,95; 18,33</t>
+          <t>17,93; 18,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,88; 17,31</t>
+          <t>16,88; 17,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,28; 17,79</t>
+          <t>17,29; 17,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,61; 17,11</t>
+          <t>16,59; 17,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,57; 17,98</t>
+          <t>17,58; 17,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,01</t>
+          <t>16,59; 17,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,26; 17,61</t>
+          <t>17,27; 17,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,03; 17,35</t>
+          <t>17,02; 17,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,83; 18,09</t>
+          <t>17,82; 18,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,13</t>
+          <t>16,8; 17,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,35; 17,67</t>
+          <t>17,33; 17,66</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,36; 17,75</t>
+          <t>17,36; 17,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,6; 17,92</t>
+          <t>17,61; 17,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,5</t>
+          <t>17,19; 17,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,52; 18,99</t>
+          <t>17,53; 18,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,04; 17,45</t>
+          <t>17,05; 17,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,44; 17,76</t>
+          <t>17,44; 17,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,09; 17,39</t>
+          <t>17,08; 17,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,13; 17,46</t>
+          <t>17,14; 17,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,27; 17,55</t>
+          <t>17,26; 17,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,57; 17,8</t>
+          <t>17,59; 17,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,18; 17,41</t>
+          <t>17,19; 17,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,39; 18,53</t>
+          <t>17,41; 18,46</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,53; 18,0</t>
+          <t>17,53; 17,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,17 +1014,17 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,63; 17,0</t>
+          <t>16,61; 16,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,54; 17,95</t>
+          <t>17,53; 17,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,23; 17,69</t>
+          <t>17,21; 17,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,17 +1034,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,39; 16,75</t>
+          <t>16,41; 16,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,06; 17,79</t>
+          <t>16,14; 17,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,77</t>
+          <t>17,44; 17,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 16,82</t>
+          <t>16,56; 16,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,53; 17,78</t>
+          <t>16,43; 17,79</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,18; 17,57</t>
+          <t>17,2; 17,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,43; 17,76</t>
+          <t>17,45; 17,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,58</t>
+          <t>17,24; 17,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,76</t>
+          <t>17,33; 17,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,94; 17,34</t>
+          <t>16,93; 17,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 17,49</t>
+          <t>17,12; 17,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,05; 17,43</t>
+          <t>17,07; 17,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 18,16</t>
+          <t>17,42; 18,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,1; 17,4</t>
+          <t>17,11; 17,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,33; 17,59</t>
+          <t>17,34; 17,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,46</t>
+          <t>17,21; 17,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,47; 17,88</t>
+          <t>17,46; 17,9</t>
         </is>
       </c>
     </row>
@@ -1284,34 +1284,34 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>17,43; 17,65</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17,71; 17,89</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17,1; 17,28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17,57; 18,32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17,07; 17,28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>17,45; 17,65</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>17,72; 17,89</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>17,11; 17,29</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>17,58; 18,3</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>17,06; 17,29</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>17,46; 17,64</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
           <t>16,93; 17,12</t>
@@ -1319,12 +1319,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,57</t>
+          <t>16,97; 17,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,28; 17,44</t>
+          <t>17,28; 17,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,04; 17,17</t>
+          <t>17,04; 17,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,37; 17,82</t>
+          <t>17,36; 17,81</t>
         </is>
       </c>
     </row>
